--- a/biology/Zoologie/Euploea/Euploea.xlsx
+++ b/biology/Zoologie/Euploea/Euploea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea est un genre de lépidoptères (papillons) appartenant à la famille des Nymphalidae, à la sous-famille des Danainae et à la tribu des Danaini.
 </t>
@@ -511,15 +523,15 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont été nommés Euploeapar Fabricius en 1807.
 Synonymes : Crastia (Hübner, 1816), Trepsichrois (Hübner, 1816), Salpinx (Hübner, 1819), Eudaemon (Billberg, 1820), Terpsichrois (Hübner, 1821),
 Euplaea (Boisduval, 1832), Calliploea Butler, 1875
 Macroploea (Butler, 1878), Stictoploea (Butler, 1878), Euplea (W.F. Kirby, 1879)
 Adigama (Moore, 1880) Andasena (Moore, 1883) Betanga (Moore, 1883) Bibisana (Moore, 1883) Chanapa (Moore, 1883), Chirosa (Moore, 1883), Danisepa (Moore, 1883), Deragena (Moore, 1883), Gamatoba (Moore, 1883), Glinama (Moore, 1883), Hirdapa (Moore, 1883), Karadira (Moore, 1883), Lontara (Moore, 1883), Mahintha (Moore, 1883), Menama (Moore, 1883), Mestapra (Moore, 1883), Nacamsa (Moore, 1883), Narmada (Moore, 1883), Nipara (Moore, 1883), Oranasma (Moore, 1883), Pademma (Moore, 1883), Patosa (Moore, 1883), Penoa (Moore, 1883), Pramasa (Moore, 1883), Pramesta (Moore, 1883), Rasuma (Moore, 1883), Sabanosa (Moore, 1883), Saphara (Moore, 1883), Sarobia (Moore, 1883), Satanga (Moore, 1883), Selinda (Moore, 1883), Tabada (Moore, 1883), Tagata (Moore, 1883), Tiruna (Moore, 1883), Tronga (Moore, 1883), Vadebra (Moore, 1883), Vonona (Moore, 1883),
-Noms vernaculaires
-En anglais ils se nomment Crows.
 </t>
         </is>
       </c>
@@ -545,13 +557,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais ils se nomment Crows.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euploea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des espèces a-c
-Euploea albicosta (Joicey et Noakes, 1915)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces a-c</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euploea albicosta (Joicey et Noakes, 1915)
 Euploea alcathoe (Godart, 1819) à Bornéo, aux Moluques, en Nouvelle-Guinée et en Australie.
 Euploea alcathoe alecto (Butler, 1866)
 Euploea alcathoe coffea (Fruhstorfer, 1910)
@@ -688,9 +742,43 @@
 Euploea crameri pagenstecheri (Hagen, 1897)
 Euploea crameri praedicabilis (Fruhstorfer, 1914) dans le sud du Viêt Nam.
 Euploea crameri singaradha (Fruhstorfer, 1908) à Bali.
-Euploea crameri tenggerensis (Fruhstorfer, 1898)
-Liste des espèces  d-m
-Euploea darchia (MacLeay, 1826) en Australasie.
+Euploea crameri tenggerensis (Fruhstorfer, 1898)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Euploea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces  d-m</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Euploea darchia (MacLeay, 1826) en Australasie.
 Euploea darchia darchia le Darwin Brown Crow.
 Euploea darchia arisbe (C. et R. Felder, 1865) à Timor.
 Euploea darchia catilina (Fruhstorfer, 1904)
@@ -822,9 +910,43 @@
 Euploea mulciber subvisaya (Schröder, 197)7 aux Philippines.
 Euploea mulciber ticaoana (Schröder &amp; Treadaway, 1981) aux Philippines.
 Euploea mulciber triggia (Schröder, 1977) aux Philippines.
-Euploea mulciber verhuelli (Moore, 1883) à Nias.
-Liste des espèces  n-z
-Euploea nechos (Mathew, 1887) aux Salomon.
+Euploea mulciber verhuelli (Moore, 1883) à Nias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euploea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces  n-z</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Euploea nechos (Mathew, 1887) aux Salomon.
 Euploea nechos nechos
 Euploea nechos  pronax (Godman et Salvin, 1888)
 Euploea nechos prusias (Godman et Salvin, 1888)
@@ -953,7 +1075,7 @@
 Euploea tulliolus nocturna (Fruhstorfer, 1904)
 Euploea tulliolusoffaka (Fruhstorfer, 1904)
 Euploea tulliolus sambawana (Doherty)
-Euploea tulliolus saundersii (C. &amp; R. Felder, [1865]
+Euploea tulliolus saundersii (C. &amp; R. Felder, 
 Euploea tulliolus sumbana (Doherty, 1891)
 Euploea tulliolus wetterensis (Fruhstorfer, 1900)
 Euploea usipetes (Hewitson, 1858) en Nouvelle-Guinée.
